--- a/biology/Écologie/Aux_guerriers_du_silence/Aux_guerriers_du_silence.xlsx
+++ b/biology/Écologie/Aux_guerriers_du_silence/Aux_guerriers_du_silence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux guerriers du silence est un documentaire franco-belge tourné en Laponie et au Brésil, sorti en 1992.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En écoutant les Samis de l’Arctique et les Fulniôs du Brésil, ce film traite de la question de l’écologie du point de vue des peuples indigènes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En écoutant les Samis de l’Arctique et les Fulniôs du Brésil, ce film traite de la question de l’écologie du point de vue des peuples indigènes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Cesar Paes
 Scénario : Marie-Clémence &amp; Cesar Paes
@@ -553,7 +569,7 @@
 Musique : Carson Rock Rangers, Jean &amp; Marcel
 Genre : documentaire
 Durée : 54 minutes
-Langues originales : Anglais, sámi[2], Yatê, Portugais[3]</t>
+Langues originales : Anglais, sámi, Yatê, Portugais</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dok film festival (1992) Leipzig Germany : Golden Dove
 Ökomedia festival (1992) Freiburg Germany : German Ministry of Environment Prize
